--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530836.6509823496</v>
+        <v>521079.7685519452</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951104</v>
+        <v>6187346.756951108</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7699981.433652959</v>
+        <v>7640750.125993934</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>285.2408885615485</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>392.4208820523424</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>106.9706214097032</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>28.0149076090959</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +901,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.338580986754886</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.8650699901663</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>79.20507481715865</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>49.73434934068585</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1145,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>11.89439304893099</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5845387116042</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>298.0721989747363</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>386.8650699901663</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1528,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>98.94574135710867</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>155.8944499847353</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1585,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>393.9470907639073</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>298.0721989747363</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>98.94574135710867</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -1777,13 +1779,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>220.264774625403</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>6.338580986754886</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>294.7228925766561</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>192.6827826450591</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2065,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>281.0675905095286</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>384.5327953590509</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -2141,10 +2143,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>13.55388980254341</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>12.68843489334725</v>
       </c>
     </row>
     <row r="23">
@@ -2327,10 +2329,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2476,22 +2478,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.64710512398458</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>12.68843489334748</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>31.80536711642098</v>
+        <v>135.0574092559102</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2792,10 +2794,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>271.338631283351</v>
       </c>
       <c r="D29" t="n">
-        <v>265.7345771113586</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>44.21277235333795</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3016,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>208.933067249405</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3095,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3193,16 +3195,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>31.85252438509736</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.9829011896734</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3427,13 +3429,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -3442,7 +3444,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>110.4827588140764</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>165.421695385058</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3518,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>115.2839811962485</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>11.22535429200825</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.99018014062471</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>69.23294824465233</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.0631928322786</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>50.37081582297201</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4034,7 +4036,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4043,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4198,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1281.648372469812</v>
+        <v>329.8871952877319</v>
       </c>
       <c r="C2" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D2" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
         <v>41.76508562960205</v>
@@ -4328,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>1846.479361096332</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1691.869552134302</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1691.869552134302</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="3">
@@ -4407,19 +4409,19 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M3" t="n">
+        <v>675.1644281008383</v>
+      </c>
+      <c r="N3" t="n">
         <v>1192.007362767164</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
         <v>1708.850297433489</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.31505061373</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="C4" t="n">
-        <v>470.2216781754465</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="D4" t="n">
-        <v>310.7270334983565</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="E4" t="n">
-        <v>149.816218366676</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1292.094317759326</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.75045561901</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.0147570077744</v>
+        <v>474.9689777942758</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.260303845748</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C5" t="n">
-        <v>877.1357131590178</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D5" t="n">
-        <v>877.1357131590178</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E5" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
         <v>41.76508562960205</v>
@@ -4568,25 +4570,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N5" t="n">
-        <v>1846.479361096332</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4604,13 +4606,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y5" t="n">
-        <v>1697.481483510237</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4653,16 +4655,16 @@
         <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>751.4208778585605</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N6" t="n">
-        <v>751.4208778585605</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1491.158856172514</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1304.767088052424</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1065.218349029126</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>782.4202015752502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>508.5344565147721</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W7" t="n">
-        <v>229.4647920236465</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4647920236465</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1265.081890330439</v>
+        <v>1253.61386627848</v>
       </c>
       <c r="C8" t="n">
-        <v>854.9572996437093</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="D8" t="n">
-        <v>450.4933697367699</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E8" t="n">
-        <v>450.4933697367699</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O8" t="n">
         <v>1571.411346813777</v>
@@ -4841,13 +4843,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X8" t="n">
-        <v>2076.239743046839</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1675.303069994929</v>
+        <v>1303.850582784223</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4887,22 +4889,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M9" t="n">
-        <v>1724.070068790184</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N9" t="n">
-        <v>1724.070068790184</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>814.2017165957118</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>643.1083441574283</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>489.9926484891412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>489.9926484891412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1331.615243227154</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>1331.615243227154</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.545578736028</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>814.2017165957118</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y10" t="n">
-        <v>814.2017165957118</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.033101815613</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.908511128883</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="D11" t="n">
-        <v>1267.908511128883</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E11" t="n">
-        <v>853.5682956457795</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F11" t="n">
-        <v>432.537883599467</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L11" t="n">
         <v>497.1688317915616</v>
@@ -5054,7 +5056,7 @@
         <v>1530.854701124212</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P11" t="n">
         <v>2047.697635790537</v>
@@ -5066,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5126,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L12" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M12" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N12" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O12" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P12" t="n">
         <v>2088.254281480102</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>315.5802729239985</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="C13" t="n">
-        <v>315.5802729239985</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>315.5802729239985</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>315.5802729239985</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H13" t="n">
         <v>158.1111315252759</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T13" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U13" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V13" t="n">
-        <v>1057.729498166676</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W13" t="n">
-        <v>778.6598336755503</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X13" t="n">
-        <v>540.3159715352338</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="Y13" t="n">
-        <v>315.5802729239985</v>
+        <v>1059.950756782464</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2088.254281480102</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="C14" t="n">
-        <v>1690.327927173125</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L14" t="n">
-        <v>1250.250340018485</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M14" t="n">
-        <v>1250.250340018485</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N14" t="n">
         <v>1250.250340018485</v>
       </c>
       <c r="O14" t="n">
-        <v>1767.09327468481</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P14" t="n">
         <v>1767.09327468481</v>
@@ -5303,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>439.0253456848109</v>
       </c>
     </row>
     <row r="15">
@@ -5370,7 +5372,7 @@
         <v>1075.450954962253</v>
       </c>
       <c r="O15" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P15" t="n">
         <v>2088.254281480102</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.8950437660649</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="C16" t="n">
-        <v>526.8016713277814</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D16" t="n">
-        <v>367.3070266506913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E16" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W16" t="n">
-        <v>1348.674310911661</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.330448771344</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="Y16" t="n">
-        <v>885.5947501601092</v>
+        <v>1059.950756782464</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1270.693821706375</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C17" t="n">
-        <v>860.5692310196448</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D17" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E17" t="n">
         <v>41.76508562960205</v>
@@ -5516,49 +5518,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>295.9505570973564</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L17" t="n">
-        <v>812.7934917636817</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M17" t="n">
-        <v>1329.636426430007</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N17" t="n">
-        <v>1726.536628995245</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O17" t="n">
-        <v>1726.536628995245</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P17" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X17" t="n">
-        <v>2081.851674422774</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y17" t="n">
-        <v>1680.915001370864</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
@@ -5604,10 +5606,10 @@
         <v>558.6080202959273</v>
       </c>
       <c r="N18" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O18" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>635.8797929259563</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>635.8797929259563</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>635.8797929259563</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
         <v>41.76508562960205</v>
@@ -5701,22 +5703,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>1376.534908871604</v>
       </c>
       <c r="V19" t="n">
-        <v>774.9313507128002</v>
+        <v>1102.649163811126</v>
       </c>
       <c r="W19" t="n">
-        <v>495.8616862216745</v>
+        <v>823.5794993200007</v>
       </c>
       <c r="X19" t="n">
-        <v>257.5178240813579</v>
+        <v>823.5794993200007</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>823.5794993200007</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E20" t="n">
-        <v>899.2322418529996</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>1598.180070079655</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071409</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710027</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046283</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841575</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.18488453114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>722.9320027651428</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>772.0745395771571</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>638.0794683261029</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1823105454953</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>400.6894945378233</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>113.9922890703826</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M21" t="n">
-        <v>93.2436976906228</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N21" t="n">
-        <v>966.9017898022406</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>2031.742883655432</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1872.40101984244</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1675.050208980659</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.338681973692</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1248.105513710021</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
-        <v>1071.779531848914</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3775722127438</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>865.6803286567329</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C22" t="n">
-        <v>865.6803286567329</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1383.093855288175</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1383.093855288175</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.093855288175</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="W22" t="n">
-        <v>1104.024190797049</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="X22" t="n">
-        <v>865.6803286567329</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="Y22" t="n">
-        <v>865.6803286567329</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G23" t="n">
         <v>490.5039577458317</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3416.38242488042</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C25" t="n">
-        <v>3416.38242488042</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D25" t="n">
-        <v>3416.38242488042</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E25" t="n">
-        <v>3416.38242488042</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F25" t="n">
-        <v>3416.38242488042</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G25" t="n">
-        <v>3249.132033805963</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4620.11710157762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4620.11710157762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4620.11710157762</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4620.11710157762</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V25" t="n">
-        <v>4346.231356517142</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W25" t="n">
-        <v>4067.161692026016</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="X25" t="n">
-        <v>3828.8178298857</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="Y25" t="n">
-        <v>3604.082131274464</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6208,25 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674168</v>
@@ -6315,7 +6317,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>425.1252146544881</v>
+        <v>694.9216971085323</v>
       </c>
       <c r="C28" t="n">
-        <v>425.1252146544881</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="D28" t="n">
-        <v>425.1252146544881</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="E28" t="n">
-        <v>425.1252146544881</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F28" t="n">
-        <v>260.4940887650794</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6409,25 +6411,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>1404.124192740453</v>
+        <v>1486.220968800453</v>
       </c>
       <c r="V28" t="n">
-        <v>1130.238447679975</v>
+        <v>1212.335223739974</v>
       </c>
       <c r="W28" t="n">
-        <v>851.1687831888491</v>
+        <v>933.2655592488488</v>
       </c>
       <c r="X28" t="n">
-        <v>612.8249210485325</v>
+        <v>694.9216971085323</v>
       </c>
       <c r="Y28" t="n">
-        <v>612.8249210485325</v>
+        <v>694.9216971085323</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D29" t="n">
         <v>1423.694372010133</v>
@@ -6461,7 +6463,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674168</v>
@@ -6549,10 +6551,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>137.9030637040955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>137.9030637040955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>137.9030637040955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>137.9030637040955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>137.9030637040955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6649,22 +6651,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V31" t="n">
-        <v>826.4099627738212</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W31" t="n">
-        <v>547.3402982826956</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X31" t="n">
-        <v>308.996436142379</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6731,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4093.653822999973</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3743.816268336454</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3360.055967471622</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6782,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.13812587521</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1210.13812587521</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
-        <v>1914.095216421104</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>1914.095216421104</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1032.970092797216</v>
+        <v>886.5906088412762</v>
       </c>
       <c r="C34" t="n">
-        <v>861.8767203589325</v>
+        <v>715.4972364029927</v>
       </c>
       <c r="D34" t="n">
-        <v>702.3820756818425</v>
+        <v>556.0025917259027</v>
       </c>
       <c r="E34" t="n">
-        <v>541.471260550162</v>
+        <v>556.0025917259027</v>
       </c>
       <c r="F34" t="n">
-        <v>376.8401346607533</v>
+        <v>391.3714658364939</v>
       </c>
       <c r="G34" t="n">
-        <v>209.5897435862967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
         <v>209.5897435862967</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V34" t="n">
-        <v>1220.66979919126</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W34" t="n">
-        <v>1220.66979919126</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X34" t="n">
-        <v>1220.66979919126</v>
+        <v>1299.026013846556</v>
       </c>
       <c r="Y34" t="n">
-        <v>1220.66979919126</v>
+        <v>1074.290315235321</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,16 +6964,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W35" t="n">
         <v>3760.992640523532</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>581.1949163979062</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1015439596227</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1015439596227</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1015439596227</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V37" t="n">
-        <v>1511.043848034628</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W37" t="n">
-        <v>1231.974183543502</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X37" t="n">
-        <v>993.6303214031859</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y37" t="n">
-        <v>768.8946227919506</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>212.9817385874103</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>874.0699105066985</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M39" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N39" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>275.6758118380055</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C40" t="n">
-        <v>104.582439399722</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D40" t="n">
-        <v>104.582439399722</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X40" t="n">
-        <v>275.6758118380055</v>
+        <v>1299.026013846556</v>
       </c>
       <c r="Y40" t="n">
-        <v>275.6758118380055</v>
+        <v>1299.026013846556</v>
       </c>
     </row>
     <row r="41">
@@ -7436,10 +7438,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
         <v>4494.590496051882</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.7425299376769</v>
+        <v>640.9446300454975</v>
       </c>
       <c r="C43" t="n">
-        <v>413.6491574993933</v>
+        <v>640.9446300454975</v>
       </c>
       <c r="D43" t="n">
-        <v>254.1545128223033</v>
+        <v>640.9446300454975</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>480.033814913817</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H43" t="n">
         <v>93.2436976906228</v>
@@ -7594,25 +7596,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V43" t="n">
-        <v>1162.365081130905</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W43" t="n">
-        <v>1162.365081130905</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="X43" t="n">
-        <v>924.0212189905885</v>
+        <v>865.6803286567329</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.4422363317212</v>
+        <v>640.9446300454975</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>824.5836069905924</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>773.7039950481965</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>773.7039950481965</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>773.7039950481965</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F44" t="n">
-        <v>352.673583001884</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G44" t="n">
-        <v>352.673583001884</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9505570973564</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K44" t="n">
-        <v>692.8507596625949</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
-        <v>1209.69369432892</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1209.69369432892</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1726.536628995245</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>1726.536628995245</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>1726.536628995245</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>1866.047797426961</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>1608.987305686471</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>1608.987305686471</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>1225.22700482164</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>824.5836069905924</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>824.5836069905924</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650824</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593072</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936203</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>537.7254774811266</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N45" t="n">
-        <v>1054.568412147452</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O45" t="n">
-        <v>1571.411346813777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>503.2668642681101</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>224.1971997769844</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>41.76508562960205</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>296.4405581451824</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8055,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>173.8482690683347</v>
       </c>
       <c r="M3" t="n">
-        <v>564.254347687538</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8216,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>537.361002360626</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>296.4405581451824</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>359.4030239885896</v>
       </c>
       <c r="O6" t="n">
-        <v>532.6464328093259</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>339.7024893595824</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P8" t="n">
         <v>615.7129336509097</v>
@@ -8535,25 +8537,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>423.9773649117757</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>395.7562197346342</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>555.4891820648243</v>
+        <v>298.7361805822441</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
@@ -8702,10 +8704,10 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8772,19 +8774,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>558.5343765177347</v>
       </c>
       <c r="N12" t="n">
-        <v>554.1634861730673</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O12" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>537.361002360626</v>
+        <v>272.0504334731807</v>
       </c>
       <c r="M14" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9018,10 +9020,10 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>558.7215717793172</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>555.229727782121</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9164,28 +9166,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L17" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>493.8215862770622</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9252,13 +9254,13 @@
         <v>579.627854108443</v>
       </c>
       <c r="N18" t="n">
-        <v>554.1634861730673</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9401,28 +9403,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9488,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>675.0496721821739</v>
+        <v>558.7215717793176</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K26" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
         <v>815.2746908024792</v>
@@ -9963,10 +9965,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L29" t="n">
         <v>815.2746908024792</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10370,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10430,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>284.6094640806152</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10835,7 +10837,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10902,13 +10904,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>176.7732988419765</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10917,7 +10919,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K44" t="n">
-        <v>490.0456851936601</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11382,16 +11384,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>558.5343765177352</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22547,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>120.7824562183141</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22556,10 +22558,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>4.216081800394534</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>56.01419322081142</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>248.2640602371185</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22787,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -22844,13 +22846,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>373.5841168694282</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.06223633122448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22942,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>5.214916324195698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>356.3846185271587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>384.742570803806</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23179,25 +23181,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>6.315159518714893</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>102.3470916331337</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>17.77593127592979</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23416,22 +23418,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>70.43669735679198</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7.090364645779346</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23497,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>12.07625401595521</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>98.56476487800069</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>70.43669735679198</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -23713,13 +23715,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>56.01419322081136</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>390.2983828659821</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>102.2044137447347</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23896,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23943,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>87.28738333427799</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.89313055788466</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>125.051377358316</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>25.66401796922133</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24029,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>144.3458084277757</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>209.7999067317757</v>
       </c>
     </row>
     <row r="23">
@@ -24215,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.77288601736976</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>209.7999067317755</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>248.1647988629161</v>
+        <v>144.9127567234268</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>134.6847134965116</v>
       </c>
       <c r="D29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24853,7 +24855,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>103.89860828926</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24889,7 +24891,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>45.55681957368</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.7253627786147</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25129,19 +25131,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>153.1639864201998</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25369,16 +25371,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>160.6641287957969</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>57.06664624006493</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>70.53872813385543</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>148.0763526883555</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>222.4997066824603</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>93.75186638586231</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25834,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.42514879284431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>355.6525289568905</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>532725.2397210941</v>
+        <v>532725.2397210943</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>532725.2397210944</v>
+        <v>532725.2397210943</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811016.2690982622</v>
+        <v>532725.2397210943</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811016.2690982625</v>
+        <v>811016.2690982622</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811016.2690982622</v>
+        <v>811016.2690982625</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811016.2690982624</v>
+        <v>811016.2690982623</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811016.2690982622</v>
+        <v>811016.2690982623</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811016.2690982624</v>
+        <v>811016.2690982623</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811016.2690982623</v>
+        <v>811016.2690982622</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>532725.2397210943</v>
+        <v>811016.2690982623</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>133181.3099302737</v>
       </c>
       <c r="D2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="E2" t="n">
         <v>133181.3099302737</v>
@@ -26329,13 +26331,13 @@
         <v>133181.3099302737</v>
       </c>
       <c r="H2" t="n">
-        <v>202754.0672745658</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="I2" t="n">
         <v>202754.0672745656</v>
       </c>
       <c r="J2" t="n">
-        <v>202754.0672745656</v>
+        <v>202754.0672745657</v>
       </c>
       <c r="K2" t="n">
         <v>202754.0672745657</v>
@@ -26347,13 +26349,13 @@
         <v>202754.0672745657</v>
       </c>
       <c r="N2" t="n">
-        <v>202754.0672745658</v>
+        <v>202754.0672745657</v>
       </c>
       <c r="O2" t="n">
         <v>202754.0672745657</v>
       </c>
       <c r="P2" t="n">
-        <v>133181.3099302737</v>
+        <v>202754.0672745657</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>171115.5499734837</v>
       </c>
       <c r="J3" t="n">
         <v>136594.800805895</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>433.9049324434263</v>
+      </c>
+      <c r="C4" t="n">
         <v>433.9049324434264</v>
-      </c>
-      <c r="C4" t="n">
-        <v>433.9049324434263</v>
       </c>
       <c r="D4" t="n">
         <v>433.9049324434264</v>
@@ -26427,13 +26429,13 @@
         <v>433.9049324434263</v>
       </c>
       <c r="F4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="G4" t="n">
         <v>433.9049324434263</v>
       </c>
       <c r="H4" t="n">
-        <v>738.1279301446465</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446466</v>
@@ -26454,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
+        <v>738.1279301446465</v>
+      </c>
+      <c r="P4" t="n">
         <v>738.1279301446466</v>
-      </c>
-      <c r="P4" t="n">
-        <v>433.9049324434264</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>70865.21024487332</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26525,7 +26527,7 @@
         <v>67378.33991933268</v>
       </c>
       <c r="D6" t="n">
-        <v>67378.33991933268</v>
+        <v>67378.33991933265</v>
       </c>
       <c r="E6" t="n">
         <v>101005.9399193327</v>
@@ -26537,13 +26539,13 @@
         <v>101005.9399193327</v>
       </c>
       <c r="H6" t="n">
-        <v>-42466.68142010158</v>
+        <v>101005.9399193326</v>
       </c>
       <c r="I6" t="n">
-        <v>131150.7290995477</v>
+        <v>-39964.82087393606</v>
       </c>
       <c r="J6" t="n">
-        <v>-5444.071706347342</v>
+        <v>-5444.071706347226</v>
       </c>
       <c r="K6" t="n">
         <v>131150.7290995477</v>
@@ -26555,13 +26557,13 @@
         <v>131150.7290995477</v>
       </c>
       <c r="N6" t="n">
-        <v>131150.7290995478</v>
+        <v>131150.7290995477</v>
       </c>
       <c r="O6" t="n">
         <v>131150.7290995478</v>
       </c>
       <c r="P6" t="n">
-        <v>101005.9399193327</v>
+        <v>131150.7290995477</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>1165.546221132785</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>643.4826507627594</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700256</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="M3" t="n">
-        <v>506.6900639491206</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>203.2507825193993</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="O6" t="n">
-        <v>474.8949538093259</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>244.2170912967376</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P8" t="n">
         <v>522.0635703700256</v>
@@ -35255,25 +35257,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>367.8628411009267</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>338.0047407346341</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>460.0037840019794</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
@@ -35422,10 +35424,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
+        <v>500.9700927793173</v>
+      </c>
+      <c r="N12" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N12" t="n">
-        <v>500.9700927793173</v>
       </c>
       <c r="O12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>441.8756042977812</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35738,10 +35740,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
+        <v>522.0635703700256</v>
+      </c>
+      <c r="P15" t="n">
         <v>500.9700927793172</v>
-      </c>
-      <c r="P15" t="n">
-        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L17" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N17" t="n">
-        <v>400.9092955204429</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,13 +35974,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N18" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>617.2981931821739</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K26" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L26" t="n">
         <v>719.7892927396343</v>
@@ -36683,10 +36685,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L29" t="n">
         <v>719.7892927396343</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37090,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37555,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>120.9475160573611</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K44" t="n">
-        <v>400.909295520443</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>500.9700927793178</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521079.7685519452</v>
+        <v>516846.8960282761</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621784</v>
+        <v>7765049.28162178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951108</v>
+        <v>6187346.75695111</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7640750.125993934</v>
+        <v>7640750.125993936</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>285.2408885615485</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>388.3430365919149</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>119.2878878475954</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>88.36045735344868</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -876,10 +876,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>28.0149076090959</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>117.780005467875</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>6.338580986754886</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.73434934068585</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>184.4858442804941</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>298.0721989747363</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>45.99907738596962</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>98.94574135710867</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>178.5059427417825</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1672,7 +1672,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>298.0721989747363</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>98.94574135710867</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>32.95238632371646</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.7228925766561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>192.6827826450591</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>281.0675905095286</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>32.95238632371646</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.68843489334725</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="23">
@@ -2329,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.68843489334748</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
-        <v>135.0574092559102</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>31.85252438509736</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3325,10 +3325,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.421695385058</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3520,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.2839811962485</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U41" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>69.23294824465233</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.8871952877319</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C2" t="n">
-        <v>41.76508562960205</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
         <v>41.76508562960205</v>
@@ -4330,22 +4330,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>692.8507596625949</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
         <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4388,46 +4388,46 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>158.3214934345131</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>675.1644281008383</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474.9689777942758</v>
+        <v>686.5916838289277</v>
       </c>
       <c r="C4" t="n">
-        <v>474.9689777942758</v>
+        <v>515.4983113906442</v>
       </c>
       <c r="D4" t="n">
-        <v>474.9689777942758</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="E4" t="n">
-        <v>474.9689777942758</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1396.638276700146</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1157.089537676848</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>874.291390222972</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>874.291390222972</v>
       </c>
       <c r="W4" t="n">
-        <v>474.9689777942758</v>
+        <v>874.291390222972</v>
       </c>
       <c r="X4" t="n">
-        <v>474.9689777942758</v>
+        <v>874.291390222972</v>
       </c>
       <c r="Y4" t="n">
-        <v>474.9689777942758</v>
+        <v>874.291390222972</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270.693821706375</v>
+        <v>160.7347881224051</v>
       </c>
       <c r="C5" t="n">
-        <v>860.5692310196448</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D5" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
         <v>41.76508562960205</v>
@@ -4567,16 +4567,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1250.250340018485</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M5" t="n">
-        <v>1250.250340018485</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N5" t="n">
         <v>1250.250340018485</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W5" t="n">
-        <v>2081.851674422774</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X5" t="n">
-        <v>2081.851674422774</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.915001370864</v>
+        <v>160.7347881224051</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1268.263812524886</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U7" t="n">
-        <v>1485.891263925851</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V7" t="n">
-        <v>1485.891263925851</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W7" t="n">
-        <v>1485.891263925851</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X7" t="n">
-        <v>1485.891263925851</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1253.61386627848</v>
+        <v>1063.485050816083</v>
       </c>
       <c r="C8" t="n">
-        <v>843.4892755917504</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D8" t="n">
-        <v>439.0253456848109</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E8" t="n">
-        <v>439.0253456848109</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F8" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
         <v>2088.254281480102</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.493980615271</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X8" t="n">
-        <v>1303.850582784223</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1303.850582784223</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4886,19 +4886,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>1054.568412147451</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147451</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147451</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4986,25 +4986,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y10" t="n">
         <v>41.76508562960205</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>740.1083749522213</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="C11" t="n">
-        <v>740.1083749522213</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D11" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E11" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F11" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G11" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H11" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
@@ -5047,19 +5047,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L11" t="n">
-        <v>497.1688317915616</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.011766457887</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N11" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O11" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
         <v>2047.697635790537</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>1952.973206274203</v>
+        <v>2041.79056694882</v>
       </c>
       <c r="T11" t="n">
-        <v>1730.766722221062</v>
+        <v>2041.79056694882</v>
       </c>
       <c r="U11" t="n">
-        <v>1473.706230480572</v>
+        <v>2041.79056694882</v>
       </c>
       <c r="V11" t="n">
-        <v>1123.868675817053</v>
+        <v>2041.79056694882</v>
       </c>
       <c r="W11" t="n">
-        <v>740.1083749522213</v>
+        <v>1658.030266083988</v>
       </c>
       <c r="X11" t="n">
-        <v>740.1083749522213</v>
+        <v>1257.386868252941</v>
       </c>
       <c r="Y11" t="n">
-        <v>740.1083749522213</v>
+        <v>856.450195201031</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L12" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M12" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="M12" t="n">
-        <v>1054.568412147451</v>
-      </c>
       <c r="N12" t="n">
+        <v>1075.450954962253</v>
+      </c>
+      <c r="O12" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P12" t="n">
         <v>2088.254281480102</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>1059.950756782464</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>1059.950756782464</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>1059.950756782464</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>1059.950756782464</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y13" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>439.0253456848109</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C14" t="n">
-        <v>439.0253456848109</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D14" t="n">
-        <v>439.0253456848109</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E14" t="n">
-        <v>439.0253456848109</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F14" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G14" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>733.4074053521598</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M14" t="n">
-        <v>733.4074053521598</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N14" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O14" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
         <v>2088.254281480102</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1730.766722221062</v>
+        <v>1907.945248407595</v>
       </c>
       <c r="U14" t="n">
-        <v>1473.706230480572</v>
+        <v>1907.945248407595</v>
       </c>
       <c r="V14" t="n">
-        <v>1123.868675817053</v>
+        <v>1558.107693744075</v>
       </c>
       <c r="W14" t="n">
-        <v>740.1083749522213</v>
+        <v>1174.347392879244</v>
       </c>
       <c r="X14" t="n">
-        <v>439.0253456848109</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="Y14" t="n">
-        <v>439.0253456848109</v>
+        <v>773.7039950481965</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L15" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O15" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>1059.950756782464</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>1059.950756782464</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>1059.950756782464</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>1059.950756782464</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y16" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.76508562960205</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C17" t="n">
-        <v>41.76508562960205</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960205</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960205</v>
+        <v>496.0807363867392</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="I17" t="n">
         <v>41.76508562960205</v>
@@ -5518,22 +5518,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M17" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N17" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O17" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P17" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q17" t="n">
         <v>2088.254281480102</v>
@@ -5548,19 +5548,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V17" t="n">
-        <v>1123.868675817053</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W17" t="n">
-        <v>740.1083749522213</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X17" t="n">
-        <v>339.4649771211738</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y17" t="n">
-        <v>41.76508562960205</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959273</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962253</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>635.8797929259563</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>635.8797929259563</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>635.8797929259563</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
         <v>41.76508562960205</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T19" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U19" t="n">
-        <v>1376.534908871604</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V19" t="n">
-        <v>1102.649163811126</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W19" t="n">
-        <v>823.5794993200007</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X19" t="n">
-        <v>823.5794993200007</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.5794993200007</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>439.0253456848109</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C20" t="n">
-        <v>439.0253456848109</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="D20" t="n">
-        <v>439.0253456848109</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="E20" t="n">
-        <v>439.0253456848109</v>
+        <v>496.0807363867392</v>
       </c>
       <c r="F20" t="n">
-        <v>439.0253456848109</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="G20" t="n">
-        <v>439.0253456848109</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="H20" t="n">
-        <v>128.1168483125289</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="I20" t="n">
         <v>41.76508562960205</v>
@@ -5761,13 +5761,13 @@
         <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>1329.636426430007</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N20" t="n">
-        <v>1329.636426430007</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O20" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
         <v>2047.697635790537</v>
@@ -5785,19 +5785,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V20" t="n">
-        <v>1123.868675817053</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W20" t="n">
-        <v>1123.868675817053</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X20" t="n">
-        <v>1123.868675817053</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y20" t="n">
-        <v>722.9320027651428</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>558.6080202959273</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.450954962253</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O21" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
         <v>2088.254281480102</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
         <v>41.76508562960205</v>
@@ -5943,19 +5943,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1331.615243227154</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1331.615243227154</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>1331.615243227154</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>1331.615243227154</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y22" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6180,19 +6180,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>1383.093855288175</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>1383.093855288175</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6314,19 +6314,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>694.9216971085323</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>1486.220968800453</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>1212.335223739974</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>933.2655592488488</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>694.9216971085323</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>694.9216971085323</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6466,7 +6466,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6551,10 +6551,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6651,19 +6651,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
         <v>93.2436976906228</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6733,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>886.5906088412762</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>715.4972364029927</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>556.0025917259027</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>556.0025917259027</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>391.3714658364939</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.369875986873</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1537.369875986873</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>1299.026013846556</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>1074.290315235321</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V35" t="n">
-        <v>4047.636833531609</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="36">
@@ -7025,19 +7025,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.369875986873</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1537.369875986873</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>1537.369875986873</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7174,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>592.7987223006619</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.369875986873</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1537.369875986873</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>1299.026013846556</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>1299.026013846556</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7438,10 +7438,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U41" t="n">
         <v>4494.590496051882</v>
@@ -7493,16 +7493,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>2083.796217986828</v>
       </c>
       <c r="O42" t="n">
         <v>2139.732893541123</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>640.9446300454975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>640.9446300454975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>640.9446300454975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>480.033814913817</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
         <v>93.2436976906228</v>
@@ -7602,19 +7602,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>1104.024190797049</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>865.6803286567329</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>640.9446300454975</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E44" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H44" t="n">
         <v>93.2436976906228</v>
@@ -7648,10 +7648,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
         <v>2139.732893541123</v>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M2" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8060,16 +8060,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>173.8482690683347</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>63.89502594283681</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8078,7 +8078,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>537.361002360626</v>
+        <v>272.0504334731806</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8294,10 +8294,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
@@ -8306,16 +8306,16 @@
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>359.4030239885896</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>263.5046911326696</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8534,13 +8534,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>423.9773649117757</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -8549,7 +8549,7 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>360.4692655976433</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8695,22 +8695,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>298.7361805822441</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P11" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8774,19 +8774,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>558.5343765177347</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>558.7215717793172</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>272.0504334731807</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O14" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9008,7 +9008,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
@@ -9017,19 +9017,19 @@
         <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>232.5803491573229</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,25 +9166,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>531.0119939709983</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
         <v>87.31214281472352</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9409,7 +9409,7 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
         <v>92.91229075661933</v>
@@ -9418,7 +9418,7 @@
         <v>296.4405581451824</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O21" t="n">
-        <v>558.7215717793176</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9962,22 +9962,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L29" t="n">
         <v>815.2746908024792</v>
@@ -10199,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10372,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>557.7944283533855</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>560.7155587704844</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11080,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>114.253171479086</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>120.7824562183141</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>12.0762540159551</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>96.16739308544015</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,10 +22764,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>248.2640602371185</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>288.2433393119875</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>373.5841168694282</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>356.3846185271587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>221.5375004993684</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>102.3470916331337</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23275,10 +23275,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>87.92918706787052</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>70.43669735679198</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>41.47847647082722</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>98.56476487800069</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>70.43669735679198</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -23752,7 +23752,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>52.53585873238111</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>102.2044137447347</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23898,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>87.28738333427799</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>125.051377358316</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>52.53585873238111</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>209.7999067317757</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.7999067317755</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24612,16 +24612,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
-        <v>144.9127567234268</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24891,7 +24891,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>133.7253627786147</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.06664624006493</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.53872813385543</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U41" t="n">
-        <v>88.57144222861982</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>93.75186638586231</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>532725.2397210943</v>
+        <v>532725.2397210944</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>532725.2397210941</v>
+        <v>532725.2397210943</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>532725.2397210943</v>
+        <v>532725.2397210941</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>532725.2397210943</v>
+        <v>532725.2397210941</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>532725.2397210941</v>
+        <v>532725.2397210943</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811016.2690982622</v>
+        <v>811016.2690982624</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811016.2690982625</v>
+        <v>811016.2690982624</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811016.2690982622</v>
+        <v>811016.2690982624</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811016.2690982623</v>
+        <v>811016.2690982624</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>811016.2690982623</v>
+        <v>811016.2690982624</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>133181.3099302736</v>
       </c>
       <c r="C2" t="n">
+        <v>133181.3099302736</v>
+      </c>
+      <c r="D2" t="n">
         <v>133181.3099302737</v>
-      </c>
-      <c r="D2" t="n">
-        <v>133181.3099302736</v>
       </c>
       <c r="E2" t="n">
         <v>133181.3099302737</v>
@@ -26331,10 +26331,10 @@
         <v>133181.3099302737</v>
       </c>
       <c r="H2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="I2" t="n">
-        <v>202754.0672745656</v>
+        <v>202754.0672745657</v>
       </c>
       <c r="J2" t="n">
         <v>202754.0672745657</v>
@@ -26343,7 +26343,7 @@
         <v>202754.0672745657</v>
       </c>
       <c r="L2" t="n">
-        <v>202754.0672745657</v>
+        <v>202754.0672745658</v>
       </c>
       <c r="M2" t="n">
         <v>202754.0672745657</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>433.9049324434264</v>
+      </c>
+      <c r="C4" t="n">
         <v>433.9049324434263</v>
-      </c>
-      <c r="C4" t="n">
-        <v>433.9049324434264</v>
       </c>
       <c r="D4" t="n">
         <v>433.9049324434264</v>
@@ -26429,13 +26429,13 @@
         <v>433.9049324434263</v>
       </c>
       <c r="F4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="G4" t="n">
         <v>433.9049324434263</v>
       </c>
       <c r="H4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446466</v>
@@ -26456,7 +26456,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
         <v>738.1279301446466</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-107577.1699737814</v>
+        <v>-108254.6988331755</v>
       </c>
       <c r="C6" t="n">
-        <v>67378.33991933268</v>
+        <v>66700.8110599386</v>
       </c>
       <c r="D6" t="n">
-        <v>67378.33991933265</v>
+        <v>66700.81105993869</v>
       </c>
       <c r="E6" t="n">
-        <v>101005.9399193327</v>
+        <v>100328.4110599386</v>
       </c>
       <c r="F6" t="n">
-        <v>101005.9399193327</v>
+        <v>100328.4110599386</v>
       </c>
       <c r="G6" t="n">
-        <v>101005.9399193327</v>
+        <v>100328.4110599386</v>
       </c>
       <c r="H6" t="n">
-        <v>101005.9399193326</v>
+        <v>100328.4110599386</v>
       </c>
       <c r="I6" t="n">
-        <v>-39964.82087393606</v>
+        <v>-40145.40146658507</v>
       </c>
       <c r="J6" t="n">
-        <v>-5444.071706347226</v>
+        <v>-5624.652298996355</v>
       </c>
       <c r="K6" t="n">
-        <v>131150.7290995477</v>
+        <v>130970.1485068986</v>
       </c>
       <c r="L6" t="n">
-        <v>131150.7290995478</v>
+        <v>130970.1485068987</v>
       </c>
       <c r="M6" t="n">
-        <v>131150.7290995477</v>
+        <v>130970.1485068986</v>
       </c>
       <c r="N6" t="n">
-        <v>131150.7290995477</v>
+        <v>130970.1485068986</v>
       </c>
       <c r="O6" t="n">
-        <v>131150.7290995478</v>
+        <v>130970.1485068986</v>
       </c>
       <c r="P6" t="n">
-        <v>131150.7290995477</v>
+        <v>130970.1485068987</v>
       </c>
     </row>
   </sheetData>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>135.5987266329976</v>
-      </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>117.7337452574857</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>10.70163254908682</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>176.5650354103358</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
@@ -35026,16 +35026,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>306.2096305948396</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>367.8628411009267</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M12" t="n">
-        <v>500.9700927793173</v>
       </c>
       <c r="N12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O12" t="n">
+        <v>500.9700927793172</v>
+      </c>
+      <c r="P12" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
+        <v>179.3869557635729</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P15" t="n">
-        <v>500.9700927793172</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>203.2507825193993</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O21" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>543.5954556656965</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L29" t="n">
         <v>719.7892927396343</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37092,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>504.6010349596355</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>504.6010349596355</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>56.50169247908597</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
